--- a/2022/Symphony/MARCH/13.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/13.03.2022/MC Bank Statement March-2022.xlsx
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tutul=220
 Kamrul=2500</t>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="242">
   <si>
     <t>Date</t>
   </si>
@@ -776,6 +776,15 @@
   <si>
     <t>Date:13.03.2022</t>
   </si>
+  <si>
+    <t xml:space="preserve">N.B: Jamuna Bank Deposit 5 Lac. </t>
+  </si>
+  <si>
+    <t>Laxmicole</t>
+  </si>
+  <si>
+    <t>Salam Telecom</t>
+  </si>
 </sst>
 </file>
 
@@ -1072,7 +1081,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="44">
@@ -2118,7 +2127,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3020,6 +3029,15 @@
     <xf numFmtId="15" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3031,6 +3049,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3059,22 +3089,10 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3118,6 +3136,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3165,15 +3192,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3850,33 +3868,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="313"/>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
+      <c r="A1" s="316"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="314"/>
-      <c r="B2" s="311" t="s">
+      <c r="A2" s="317"/>
+      <c r="B2" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="314"/>
-      <c r="B3" s="312" t="s">
+      <c r="A3" s="317"/>
+      <c r="B3" s="315" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="314"/>
+      <c r="A4" s="317"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3912,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="314"/>
+      <c r="A5" s="317"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3912,7 +3930,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="314"/>
+      <c r="A6" s="317"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3924,7 +3942,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="314"/>
+      <c r="A7" s="317"/>
       <c r="B7" s="26" t="s">
         <v>58</v>
       </c>
@@ -3943,7 +3961,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="314"/>
+      <c r="A8" s="317"/>
       <c r="B8" s="26" t="s">
         <v>59</v>
       </c>
@@ -3962,7 +3980,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="314"/>
+      <c r="A9" s="317"/>
       <c r="B9" s="26" t="s">
         <v>61</v>
       </c>
@@ -3981,7 +3999,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="314"/>
+      <c r="A10" s="317"/>
       <c r="B10" s="26" t="s">
         <v>62</v>
       </c>
@@ -4000,7 +4018,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="314"/>
+      <c r="A11" s="317"/>
       <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
@@ -4019,7 +4037,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="314"/>
+      <c r="A12" s="317"/>
       <c r="B12" s="26" t="s">
         <v>64</v>
       </c>
@@ -4038,7 +4056,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="314"/>
+      <c r="A13" s="317"/>
       <c r="B13" s="26" t="s">
         <v>65</v>
       </c>
@@ -4057,7 +4075,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="314"/>
+      <c r="A14" s="317"/>
       <c r="B14" s="26" t="s">
         <v>66</v>
       </c>
@@ -4076,7 +4094,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="314"/>
+      <c r="A15" s="317"/>
       <c r="B15" s="26" t="s">
         <v>67</v>
       </c>
@@ -4095,7 +4113,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="314"/>
+      <c r="A16" s="317"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4108,7 +4126,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="314"/>
+      <c r="A17" s="317"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4121,7 +4139,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="314"/>
+      <c r="A18" s="317"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4134,7 +4152,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="314"/>
+      <c r="A19" s="317"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4147,7 +4165,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="314"/>
+      <c r="A20" s="317"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4160,7 +4178,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="314"/>
+      <c r="A21" s="317"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4173,7 +4191,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="314"/>
+      <c r="A22" s="317"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4186,7 +4204,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="314"/>
+      <c r="A23" s="317"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4199,7 +4217,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="314"/>
+      <c r="A24" s="317"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4212,7 +4230,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="314"/>
+      <c r="A25" s="317"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4225,7 +4243,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="314"/>
+      <c r="A26" s="317"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4238,7 +4256,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="314"/>
+      <c r="A27" s="317"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4251,7 +4269,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="314"/>
+      <c r="A28" s="317"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4264,7 +4282,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="314"/>
+      <c r="A29" s="317"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4277,7 +4295,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="314"/>
+      <c r="A30" s="317"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4290,7 +4308,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="314"/>
+      <c r="A31" s="317"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4303,7 +4321,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="314"/>
+      <c r="A32" s="317"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4316,7 +4334,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="314"/>
+      <c r="A33" s="317"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4329,7 +4347,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="314"/>
+      <c r="A34" s="317"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4342,7 +4360,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="314"/>
+      <c r="A35" s="317"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4355,7 +4373,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="314"/>
+      <c r="A36" s="317"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4368,7 +4386,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="314"/>
+      <c r="A37" s="317"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4381,7 +4399,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="314"/>
+      <c r="A38" s="317"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4394,7 +4412,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="314"/>
+      <c r="A39" s="317"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4407,7 +4425,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="314"/>
+      <c r="A40" s="317"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4420,7 +4438,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="314"/>
+      <c r="A41" s="317"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4433,7 +4451,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="314"/>
+      <c r="A42" s="317"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4446,7 +4464,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="314"/>
+      <c r="A43" s="317"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4459,7 +4477,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="314"/>
+      <c r="A44" s="317"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4472,7 +4490,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="314"/>
+      <c r="A45" s="317"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4485,7 +4503,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="314"/>
+      <c r="A46" s="317"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4498,7 +4516,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="314"/>
+      <c r="A47" s="317"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4511,7 +4529,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="314"/>
+      <c r="A48" s="317"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4524,7 +4542,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="314"/>
+      <c r="A49" s="317"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4537,7 +4555,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="314"/>
+      <c r="A50" s="317"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4550,7 +4568,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="314"/>
+      <c r="A51" s="317"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4563,7 +4581,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="314"/>
+      <c r="A52" s="317"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4576,7 +4594,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="314"/>
+      <c r="A53" s="317"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4589,7 +4607,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="314"/>
+      <c r="A54" s="317"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4602,7 +4620,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="314"/>
+      <c r="A55" s="317"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4614,7 +4632,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="314"/>
+      <c r="A56" s="317"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4626,7 +4644,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="314"/>
+      <c r="A57" s="317"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4638,7 +4656,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="314"/>
+      <c r="A58" s="317"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4650,7 +4668,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="314"/>
+      <c r="A59" s="317"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4662,7 +4680,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="314"/>
+      <c r="A60" s="317"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4674,7 +4692,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="314"/>
+      <c r="A61" s="317"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4686,7 +4704,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="314"/>
+      <c r="A62" s="317"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4698,7 +4716,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="314"/>
+      <c r="A63" s="317"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4710,7 +4728,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="314"/>
+      <c r="A64" s="317"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4722,7 +4740,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="314"/>
+      <c r="A65" s="317"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4734,7 +4752,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="314"/>
+      <c r="A66" s="317"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4746,7 +4764,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="314"/>
+      <c r="A67" s="317"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4758,7 +4776,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="314"/>
+      <c r="A68" s="317"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4770,7 +4788,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="314"/>
+      <c r="A69" s="317"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4782,7 +4800,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="314"/>
+      <c r="A70" s="317"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4794,7 +4812,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="314"/>
+      <c r="A71" s="317"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4806,7 +4824,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="314"/>
+      <c r="A72" s="317"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4818,7 +4836,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="314"/>
+      <c r="A73" s="317"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4830,7 +4848,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="314"/>
+      <c r="A74" s="317"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4842,7 +4860,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="314"/>
+      <c r="A75" s="317"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4854,7 +4872,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="314"/>
+      <c r="A76" s="317"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4866,7 +4884,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="314"/>
+      <c r="A77" s="317"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4878,7 +4896,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="314"/>
+      <c r="A78" s="317"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4890,7 +4908,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="314"/>
+      <c r="A79" s="317"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4902,7 +4920,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="314"/>
+      <c r="A80" s="317"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4914,7 +4932,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="314"/>
+      <c r="A81" s="317"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4926,7 +4944,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="314"/>
+      <c r="A82" s="317"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4938,7 +4956,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="314"/>
+      <c r="A83" s="317"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4995,33 +5013,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="313"/>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
+      <c r="A1" s="316"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="314"/>
-      <c r="B2" s="311" t="s">
+      <c r="A2" s="317"/>
+      <c r="B2" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="314"/>
-      <c r="B3" s="312" t="s">
+      <c r="A3" s="317"/>
+      <c r="B3" s="315" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="314"/>
+      <c r="A4" s="317"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +5057,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="314"/>
+      <c r="A5" s="317"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5057,7 +5075,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="314"/>
+      <c r="A6" s="317"/>
       <c r="B6" s="26"/>
       <c r="C6" s="265"/>
       <c r="D6" s="265"/>
@@ -5069,7 +5087,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="314"/>
+      <c r="A7" s="317"/>
       <c r="B7" s="26" t="s">
         <v>192</v>
       </c>
@@ -5087,7 +5105,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="314"/>
+      <c r="A8" s="317"/>
       <c r="B8" s="26" t="s">
         <v>199</v>
       </c>
@@ -5105,7 +5123,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="314"/>
+      <c r="A9" s="317"/>
       <c r="B9" s="26" t="s">
         <v>205</v>
       </c>
@@ -5123,7 +5141,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="314"/>
+      <c r="A10" s="317"/>
       <c r="B10" s="26" t="s">
         <v>208</v>
       </c>
@@ -5141,7 +5159,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="314"/>
+      <c r="A11" s="317"/>
       <c r="B11" s="26" t="s">
         <v>213</v>
       </c>
@@ -5159,7 +5177,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="314"/>
+      <c r="A12" s="317"/>
       <c r="B12" s="26" t="s">
         <v>219</v>
       </c>
@@ -5177,7 +5195,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="314"/>
+      <c r="A13" s="317"/>
       <c r="B13" s="26" t="s">
         <v>222</v>
       </c>
@@ -5195,7 +5213,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="314"/>
+      <c r="A14" s="317"/>
       <c r="B14" s="26" t="s">
         <v>225</v>
       </c>
@@ -5213,7 +5231,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="314"/>
+      <c r="A15" s="317"/>
       <c r="B15" s="26" t="s">
         <v>228</v>
       </c>
@@ -5231,7 +5249,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="314"/>
+      <c r="A16" s="317"/>
       <c r="B16" s="26" t="s">
         <v>232</v>
       </c>
@@ -5249,27 +5267,27 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="314"/>
+      <c r="A17" s="317"/>
       <c r="B17" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="360">
+      <c r="C17" s="311">
         <v>500000</v>
       </c>
-      <c r="D17" s="360">
+      <c r="D17" s="311">
         <v>500000</v>
       </c>
-      <c r="E17" s="361">
+      <c r="E17" s="312">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
-      <c r="F17" s="362" t="s">
+      <c r="F17" s="313" t="s">
         <v>237</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="314"/>
+      <c r="A18" s="317"/>
       <c r="B18" s="26"/>
       <c r="C18" s="265"/>
       <c r="D18" s="265"/>
@@ -5281,7 +5299,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="314"/>
+      <c r="A19" s="317"/>
       <c r="B19" s="26"/>
       <c r="C19" s="265"/>
       <c r="D19" s="268"/>
@@ -5293,7 +5311,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="314"/>
+      <c r="A20" s="317"/>
       <c r="B20" s="26"/>
       <c r="C20" s="265"/>
       <c r="D20" s="265"/>
@@ -5305,7 +5323,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="314"/>
+      <c r="A21" s="317"/>
       <c r="B21" s="26"/>
       <c r="C21" s="265"/>
       <c r="D21" s="265"/>
@@ -5317,7 +5335,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="314"/>
+      <c r="A22" s="317"/>
       <c r="B22" s="26"/>
       <c r="C22" s="265"/>
       <c r="D22" s="265"/>
@@ -5329,7 +5347,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="314"/>
+      <c r="A23" s="317"/>
       <c r="B23" s="26"/>
       <c r="C23" s="265"/>
       <c r="D23" s="265"/>
@@ -5341,7 +5359,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="314"/>
+      <c r="A24" s="317"/>
       <c r="B24" s="26"/>
       <c r="C24" s="265"/>
       <c r="D24" s="265"/>
@@ -5353,7 +5371,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="314"/>
+      <c r="A25" s="317"/>
       <c r="B25" s="26"/>
       <c r="C25" s="265"/>
       <c r="D25" s="265"/>
@@ -5365,7 +5383,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="314"/>
+      <c r="A26" s="317"/>
       <c r="B26" s="26"/>
       <c r="C26" s="265"/>
       <c r="D26" s="265"/>
@@ -5377,7 +5395,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="314"/>
+      <c r="A27" s="317"/>
       <c r="B27" s="26"/>
       <c r="C27" s="265"/>
       <c r="D27" s="265"/>
@@ -5389,7 +5407,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="314"/>
+      <c r="A28" s="317"/>
       <c r="B28" s="26"/>
       <c r="C28" s="265"/>
       <c r="D28" s="265"/>
@@ -5401,7 +5419,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="314"/>
+      <c r="A29" s="317"/>
       <c r="B29" s="26"/>
       <c r="C29" s="265"/>
       <c r="D29" s="265"/>
@@ -5413,7 +5431,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="314"/>
+      <c r="A30" s="317"/>
       <c r="B30" s="26"/>
       <c r="C30" s="265"/>
       <c r="D30" s="265"/>
@@ -5425,7 +5443,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="314"/>
+      <c r="A31" s="317"/>
       <c r="B31" s="26"/>
       <c r="C31" s="265"/>
       <c r="D31" s="265"/>
@@ -5437,7 +5455,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="314"/>
+      <c r="A32" s="317"/>
       <c r="B32" s="26"/>
       <c r="C32" s="265"/>
       <c r="D32" s="265"/>
@@ -5449,7 +5467,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="314"/>
+      <c r="A33" s="317"/>
       <c r="B33" s="26"/>
       <c r="C33" s="265"/>
       <c r="D33" s="268"/>
@@ -5461,7 +5479,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="314"/>
+      <c r="A34" s="317"/>
       <c r="B34" s="26"/>
       <c r="C34" s="265"/>
       <c r="D34" s="265"/>
@@ -5473,7 +5491,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="314"/>
+      <c r="A35" s="317"/>
       <c r="B35" s="26"/>
       <c r="C35" s="265"/>
       <c r="D35" s="265"/>
@@ -5485,7 +5503,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="314"/>
+      <c r="A36" s="317"/>
       <c r="B36" s="26"/>
       <c r="C36" s="265"/>
       <c r="D36" s="265"/>
@@ -5497,7 +5515,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="314"/>
+      <c r="A37" s="317"/>
       <c r="B37" s="26"/>
       <c r="C37" s="265"/>
       <c r="D37" s="265"/>
@@ -5509,7 +5527,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="314"/>
+      <c r="A38" s="317"/>
       <c r="B38" s="26"/>
       <c r="C38" s="265"/>
       <c r="D38" s="265"/>
@@ -5521,7 +5539,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="314"/>
+      <c r="A39" s="317"/>
       <c r="B39" s="26"/>
       <c r="C39" s="265"/>
       <c r="D39" s="265"/>
@@ -5533,7 +5551,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="314"/>
+      <c r="A40" s="317"/>
       <c r="B40" s="26"/>
       <c r="C40" s="265"/>
       <c r="D40" s="265"/>
@@ -5545,7 +5563,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="314"/>
+      <c r="A41" s="317"/>
       <c r="B41" s="26"/>
       <c r="C41" s="265"/>
       <c r="D41" s="265"/>
@@ -5557,7 +5575,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="314"/>
+      <c r="A42" s="317"/>
       <c r="B42" s="26"/>
       <c r="C42" s="265"/>
       <c r="D42" s="265"/>
@@ -5569,7 +5587,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="314"/>
+      <c r="A43" s="317"/>
       <c r="B43" s="26"/>
       <c r="C43" s="265"/>
       <c r="D43" s="265"/>
@@ -5581,7 +5599,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="314"/>
+      <c r="A44" s="317"/>
       <c r="B44" s="26"/>
       <c r="C44" s="265"/>
       <c r="D44" s="265"/>
@@ -5593,7 +5611,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="314"/>
+      <c r="A45" s="317"/>
       <c r="B45" s="26"/>
       <c r="C45" s="265"/>
       <c r="D45" s="265"/>
@@ -5605,7 +5623,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="314"/>
+      <c r="A46" s="317"/>
       <c r="B46" s="26"/>
       <c r="C46" s="265"/>
       <c r="D46" s="265"/>
@@ -5617,7 +5635,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="314"/>
+      <c r="A47" s="317"/>
       <c r="B47" s="26"/>
       <c r="C47" s="265"/>
       <c r="D47" s="265"/>
@@ -5629,7 +5647,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="314"/>
+      <c r="A48" s="317"/>
       <c r="B48" s="26"/>
       <c r="C48" s="265"/>
       <c r="D48" s="265"/>
@@ -5641,7 +5659,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="314"/>
+      <c r="A49" s="317"/>
       <c r="B49" s="26"/>
       <c r="C49" s="265"/>
       <c r="D49" s="265"/>
@@ -5653,7 +5671,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="314"/>
+      <c r="A50" s="317"/>
       <c r="B50" s="26"/>
       <c r="C50" s="265"/>
       <c r="D50" s="265"/>
@@ -5665,7 +5683,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="314"/>
+      <c r="A51" s="317"/>
       <c r="B51" s="26"/>
       <c r="C51" s="265"/>
       <c r="D51" s="265"/>
@@ -5677,7 +5695,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="314"/>
+      <c r="A52" s="317"/>
       <c r="B52" s="26"/>
       <c r="C52" s="265"/>
       <c r="D52" s="265"/>
@@ -5689,7 +5707,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="314"/>
+      <c r="A53" s="317"/>
       <c r="B53" s="26"/>
       <c r="C53" s="265"/>
       <c r="D53" s="265"/>
@@ -5701,7 +5719,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="314"/>
+      <c r="A54" s="317"/>
       <c r="B54" s="26"/>
       <c r="C54" s="265"/>
       <c r="D54" s="265"/>
@@ -5713,7 +5731,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="314"/>
+      <c r="A55" s="317"/>
       <c r="B55" s="26"/>
       <c r="C55" s="265"/>
       <c r="D55" s="265"/>
@@ -5724,7 +5742,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="314"/>
+      <c r="A56" s="317"/>
       <c r="B56" s="26"/>
       <c r="C56" s="265"/>
       <c r="D56" s="265"/>
@@ -5735,7 +5753,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="314"/>
+      <c r="A57" s="317"/>
       <c r="B57" s="26"/>
       <c r="C57" s="265"/>
       <c r="D57" s="265"/>
@@ -5746,7 +5764,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="314"/>
+      <c r="A58" s="317"/>
       <c r="B58" s="26"/>
       <c r="C58" s="265"/>
       <c r="D58" s="265"/>
@@ -5757,7 +5775,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="314"/>
+      <c r="A59" s="317"/>
       <c r="B59" s="26"/>
       <c r="C59" s="265"/>
       <c r="D59" s="265"/>
@@ -5768,7 +5786,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="314"/>
+      <c r="A60" s="317"/>
       <c r="B60" s="26"/>
       <c r="C60" s="265"/>
       <c r="D60" s="265"/>
@@ -5779,7 +5797,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="314"/>
+      <c r="A61" s="317"/>
       <c r="B61" s="26"/>
       <c r="C61" s="265"/>
       <c r="D61" s="265"/>
@@ -5790,7 +5808,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="314"/>
+      <c r="A62" s="317"/>
       <c r="B62" s="26"/>
       <c r="C62" s="265"/>
       <c r="D62" s="265"/>
@@ -5801,7 +5819,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="314"/>
+      <c r="A63" s="317"/>
       <c r="B63" s="26"/>
       <c r="C63" s="265"/>
       <c r="D63" s="265"/>
@@ -5812,7 +5830,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="314"/>
+      <c r="A64" s="317"/>
       <c r="B64" s="26"/>
       <c r="C64" s="265"/>
       <c r="D64" s="265"/>
@@ -5823,7 +5841,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="314"/>
+      <c r="A65" s="317"/>
       <c r="B65" s="26"/>
       <c r="C65" s="265"/>
       <c r="D65" s="265"/>
@@ -5834,7 +5852,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="314"/>
+      <c r="A66" s="317"/>
       <c r="B66" s="26"/>
       <c r="C66" s="265"/>
       <c r="D66" s="265"/>
@@ -5845,7 +5863,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="314"/>
+      <c r="A67" s="317"/>
       <c r="B67" s="26"/>
       <c r="C67" s="265"/>
       <c r="D67" s="265"/>
@@ -5856,7 +5874,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="314"/>
+      <c r="A68" s="317"/>
       <c r="B68" s="26"/>
       <c r="C68" s="265"/>
       <c r="D68" s="265"/>
@@ -5867,7 +5885,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="314"/>
+      <c r="A69" s="317"/>
       <c r="B69" s="26"/>
       <c r="C69" s="265"/>
       <c r="D69" s="265"/>
@@ -5878,7 +5896,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="314"/>
+      <c r="A70" s="317"/>
       <c r="B70" s="26"/>
       <c r="C70" s="265"/>
       <c r="D70" s="265"/>
@@ -5889,7 +5907,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="314"/>
+      <c r="A71" s="317"/>
       <c r="B71" s="26"/>
       <c r="C71" s="265"/>
       <c r="D71" s="265"/>
@@ -5900,7 +5918,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="314"/>
+      <c r="A72" s="317"/>
       <c r="B72" s="26"/>
       <c r="C72" s="265"/>
       <c r="D72" s="265"/>
@@ -5911,7 +5929,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="314"/>
+      <c r="A73" s="317"/>
       <c r="B73" s="26"/>
       <c r="C73" s="265"/>
       <c r="D73" s="265"/>
@@ -5922,7 +5940,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="314"/>
+      <c r="A74" s="317"/>
       <c r="B74" s="26"/>
       <c r="C74" s="265"/>
       <c r="D74" s="265"/>
@@ -5933,7 +5951,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="314"/>
+      <c r="A75" s="317"/>
       <c r="B75" s="26"/>
       <c r="C75" s="265"/>
       <c r="D75" s="265"/>
@@ -5944,7 +5962,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="314"/>
+      <c r="A76" s="317"/>
       <c r="B76" s="26"/>
       <c r="C76" s="265"/>
       <c r="D76" s="265"/>
@@ -5955,7 +5973,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="314"/>
+      <c r="A77" s="317"/>
       <c r="B77" s="26"/>
       <c r="C77" s="265"/>
       <c r="D77" s="265"/>
@@ -5966,7 +5984,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="314"/>
+      <c r="A78" s="317"/>
       <c r="B78" s="26"/>
       <c r="C78" s="265"/>
       <c r="D78" s="265"/>
@@ -5977,7 +5995,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="314"/>
+      <c r="A79" s="317"/>
       <c r="B79" s="26"/>
       <c r="C79" s="265"/>
       <c r="D79" s="265"/>
@@ -5989,7 +6007,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="314"/>
+      <c r="A80" s="317"/>
       <c r="B80" s="26"/>
       <c r="C80" s="265"/>
       <c r="D80" s="265"/>
@@ -6001,7 +6019,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="314"/>
+      <c r="A81" s="317"/>
       <c r="B81" s="26"/>
       <c r="C81" s="265"/>
       <c r="D81" s="265"/>
@@ -6013,7 +6031,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="314"/>
+      <c r="A82" s="317"/>
       <c r="B82" s="26"/>
       <c r="C82" s="265"/>
       <c r="D82" s="265"/>
@@ -6025,7 +6043,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="314"/>
+      <c r="A83" s="317"/>
       <c r="B83" s="31"/>
       <c r="C83" s="267">
         <f>SUM(C5:C72)</f>
@@ -6067,9 +6085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6083,67 +6101,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="322" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
+      <c r="L1" s="322"/>
+      <c r="M1" s="322"/>
+      <c r="N1" s="322"/>
+      <c r="O1" s="322"/>
+      <c r="P1" s="322"/>
+      <c r="Q1" s="322"/>
     </row>
     <row r="2" spans="1:24" s="71" customFormat="1" ht="18">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="323" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
+      <c r="N2" s="323"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="323"/>
+      <c r="Q2" s="323"/>
     </row>
     <row r="3" spans="1:24" s="72" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="324" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="318"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="319"/>
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
+      <c r="H3" s="325"/>
+      <c r="I3" s="325"/>
+      <c r="J3" s="325"/>
+      <c r="K3" s="325"/>
+      <c r="L3" s="325"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="325"/>
+      <c r="O3" s="325"/>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="326"/>
       <c r="S3" s="55"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6152,52 +6170,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="327" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="329" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="318" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="318" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="318" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="318" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="324" t="s">
+      <c r="H4" s="318" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="324" t="s">
+      <c r="I4" s="318" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="324" t="s">
+      <c r="K4" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="324" t="s">
+      <c r="L4" s="318" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="324" t="s">
+      <c r="M4" s="318" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="324" t="s">
+      <c r="N4" s="318" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="328" t="s">
+      <c r="O4" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="326" t="s">
+      <c r="P4" s="331" t="s">
         <v>70</v>
       </c>
       <c r="Q4" s="134" t="s">
@@ -6210,22 +6228,22 @@
       <c r="W4" s="75"/>
     </row>
     <row r="5" spans="1:24" s="73" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="321"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
-      <c r="O5" s="329"/>
-      <c r="P5" s="327"/>
+      <c r="A5" s="328"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="319"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
+      <c r="N5" s="319"/>
+      <c r="O5" s="321"/>
+      <c r="P5" s="332"/>
       <c r="Q5" s="135" t="s">
         <v>45</v>
       </c>
@@ -6476,7 +6494,9 @@
         <v>1550</v>
       </c>
       <c r="R11" s="86"/>
-      <c r="S11" s="33"/>
+      <c r="S11" s="33">
+        <v>21650</v>
+      </c>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
       <c r="V11" s="33"/>
@@ -6516,7 +6536,9 @@
         <v>1550</v>
       </c>
       <c r="R12" s="86"/>
-      <c r="S12" s="33"/>
+      <c r="S12" s="33">
+        <v>7980</v>
+      </c>
       <c r="T12" s="33"/>
       <c r="U12" s="5"/>
       <c r="V12" s="33"/>
@@ -6556,7 +6578,10 @@
         <v>1650</v>
       </c>
       <c r="R13" s="86"/>
-      <c r="S13" s="87"/>
+      <c r="S13" s="87">
+        <f>S11-S12</f>
+        <v>13670</v>
+      </c>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
@@ -6647,17 +6672,29 @@
       <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="88">
+        <v>500</v>
+      </c>
       <c r="C16" s="81"/>
-      <c r="D16" s="89"/>
+      <c r="D16" s="89">
+        <v>120</v>
+      </c>
       <c r="E16" s="89"/>
       <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="G16" s="89">
+        <v>220</v>
+      </c>
       <c r="H16" s="89"/>
       <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
+      <c r="J16" s="89">
+        <v>30</v>
+      </c>
+      <c r="K16" s="89">
+        <v>400</v>
+      </c>
       <c r="L16" s="89"/>
       <c r="M16" s="89"/>
       <c r="N16" s="120"/>
@@ -6665,7 +6702,7 @@
       <c r="P16" s="91"/>
       <c r="Q16" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="R16" s="86"/>
       <c r="S16" s="6"/>
@@ -7180,7 +7217,7 @@
       </c>
       <c r="B37" s="106">
         <f>SUM(B6:B36)</f>
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="C37" s="107">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7188,7 +7225,7 @@
       </c>
       <c r="D37" s="107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E37" s="107">
         <f t="shared" si="1"/>
@@ -7200,7 +7237,7 @@
       </c>
       <c r="G37" s="107">
         <f>SUM(G6:G36)</f>
-        <v>3160</v>
+        <v>3380</v>
       </c>
       <c r="H37" s="107">
         <f t="shared" si="1"/>
@@ -7212,11 +7249,11 @@
       </c>
       <c r="J37" s="107">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="K37" s="107">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="L37" s="107">
         <f t="shared" si="1"/>
@@ -7240,7 +7277,7 @@
       </c>
       <c r="Q37" s="109">
         <f>SUM(Q6:Q36)</f>
-        <v>25310</v>
+        <v>26580</v>
       </c>
       <c r="S37" s="240" t="s">
         <v>52</v>
@@ -9244,8 +9281,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9263,6 +9298,8 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9276,7 +9313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A105" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -9304,14 +9341,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="336"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="339"/>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
       <c r="I1" s="151"/>
@@ -9405,14 +9442,14 @@
       <c r="CS1" s="146"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="340" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="338"/>
-      <c r="C2" s="338"/>
-      <c r="D2" s="338"/>
-      <c r="E2" s="338"/>
-      <c r="F2" s="339"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="342"/>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
       <c r="I2" s="151"/>
@@ -9506,14 +9543,14 @@
       <c r="CS2" s="146"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="343" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="342"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="345"/>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
       <c r="I3" s="151"/>
@@ -10820,13 +10857,21 @@
       <c r="CS14" s="146"/>
     </row>
     <row r="15" spans="1:97">
-      <c r="A15" s="191"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="54"/>
+      <c r="A15" s="191" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="54">
+        <v>272690</v>
+      </c>
+      <c r="C15" s="57">
+        <v>317100</v>
+      </c>
+      <c r="D15" s="54">
+        <v>1270</v>
+      </c>
       <c r="E15" s="54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>318370</v>
       </c>
       <c r="F15" s="243"/>
       <c r="G15" s="253"/>
@@ -12661,23 +12706,23 @@
       </c>
       <c r="B33" s="271">
         <f>SUM(B5:B32)</f>
-        <v>3720460</v>
+        <v>3993150</v>
       </c>
       <c r="C33" s="272">
         <f>SUM(C5:C32)</f>
-        <v>3474710</v>
+        <v>3791810</v>
       </c>
       <c r="D33" s="271">
         <f>SUM(D5:D32)</f>
-        <v>25230</v>
+        <v>26500</v>
       </c>
       <c r="E33" s="271">
         <f>SUM(E5:E32)</f>
-        <v>3499940</v>
+        <v>3818310</v>
       </c>
       <c r="F33" s="271">
         <f>B33-E33</f>
-        <v>220520</v>
+        <v>174840</v>
       </c>
       <c r="G33" s="273"/>
       <c r="H33" s="147"/>
@@ -12872,12 +12917,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="141"/>
-      <c r="B35" s="332" t="s">
+      <c r="B35" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
+      <c r="C35" s="335"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="335"/>
       <c r="F35" s="142"/>
       <c r="G35" s="147"/>
       <c r="H35" s="147"/>
@@ -13750,10 +13795,10 @@
       <c r="D43" s="217"/>
       <c r="E43" s="184"/>
       <c r="F43" s="142"/>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="333"/>
-      <c r="J43" s="333"/>
+      <c r="G43" s="336"/>
+      <c r="H43" s="336"/>
+      <c r="I43" s="336"/>
+      <c r="J43" s="336"/>
       <c r="K43" s="66"/>
       <c r="L43" s="151"/>
       <c r="M43" s="66"/>
@@ -14075,10 +14120,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="219">
-        <v>488730</v>
+        <v>458730</v>
       </c>
       <c r="E46" s="282" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F46" s="139"/>
       <c r="G46" s="146"/>
@@ -14197,10 +14242,10 @@
         <v>1765002244</v>
       </c>
       <c r="D47" s="220">
-        <v>250000</v>
+        <v>245000</v>
       </c>
       <c r="E47" s="186" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F47" s="140"/>
       <c r="G47" s="146"/>
@@ -14563,10 +14608,10 @@
         <v>1733624262</v>
       </c>
       <c r="D50" s="220">
-        <v>196020</v>
+        <v>176020</v>
       </c>
       <c r="E50" s="186" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F50" s="140"/>
       <c r="G50" s="146"/>
@@ -18643,10 +18688,10 @@
       </c>
       <c r="C84" s="124"/>
       <c r="D84" s="220">
-        <v>7980</v>
+        <v>21650</v>
       </c>
       <c r="E84" s="187" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F84" s="305"/>
       <c r="G84" s="146"/>
@@ -19251,10 +19296,10 @@
         <v>1789726772</v>
       </c>
       <c r="D89" s="220">
-        <v>46000</v>
+        <v>40000</v>
       </c>
       <c r="E89" s="187" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="F89" s="140"/>
       <c r="G89" s="146"/>
@@ -19361,10 +19406,10 @@
       </c>
       <c r="C90" s="124"/>
       <c r="D90" s="220">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="E90" s="187" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="F90" s="140"/>
       <c r="G90" s="146"/>
@@ -19903,11 +19948,19 @@
       <c r="CS94" s="146"/>
     </row>
     <row r="95" spans="1:97">
-      <c r="A95" s="237"/>
-      <c r="B95" s="59"/>
+      <c r="A95" s="237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" s="59" t="s">
+        <v>241</v>
+      </c>
       <c r="C95" s="124"/>
-      <c r="D95" s="222"/>
-      <c r="E95" s="187"/>
+      <c r="D95" s="222">
+        <v>5650</v>
+      </c>
+      <c r="E95" s="187" t="s">
+        <v>236</v>
+      </c>
       <c r="F95" s="146"/>
       <c r="G95" s="146"/>
       <c r="H95" s="183"/>
@@ -22383,14 +22436,14 @@
       <c r="CS118" s="146"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="330" t="s">
+      <c r="A119" s="333" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="331"/>
-      <c r="C119" s="343"/>
+      <c r="B119" s="334"/>
+      <c r="C119" s="346"/>
       <c r="D119" s="223">
         <f>SUM(D37:D118)</f>
-        <v>2613705</v>
+        <v>2568025</v>
       </c>
       <c r="E119" s="215"/>
       <c r="F119" s="146"/>
@@ -22590,14 +22643,14 @@
       <c r="CS120" s="146"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="330" t="s">
+      <c r="A121" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="331"/>
-      <c r="C121" s="331"/>
+      <c r="B121" s="334"/>
+      <c r="C121" s="334"/>
       <c r="D121" s="223">
         <f>D119+M121</f>
-        <v>2613705</v>
+        <v>2568025</v>
       </c>
       <c r="E121" s="215"/>
       <c r="F121" s="146"/>
@@ -33832,7 +33885,7 @@
   <dimension ref="A1:Y218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33850,35 +33903,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="350" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="346"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="352"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="359" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="354"/>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="355"/>
+      <c r="B2" s="360"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="361"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="347" t="s">
+      <c r="A3" s="353" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="348"/>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="349"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="355"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33901,15 +33954,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="362" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="357"/>
+      <c r="B4" s="363"/>
       <c r="C4" s="279"/>
-      <c r="D4" s="358" t="s">
+      <c r="D4" s="364" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="359"/>
+      <c r="E4" s="365"/>
       <c r="F4" s="5"/>
       <c r="G4" s="47"/>
       <c r="H4" s="7"/>
@@ -33943,7 +33996,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="256">
-        <v>6359214.4924999997</v>
+        <v>6093957.499499999</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="275"/>
@@ -33971,7 +34024,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="260">
-        <v>99311.42540000008</v>
+        <v>106744.43240000011</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
@@ -34009,7 +34062,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="304">
-        <v>12682.932900000364</v>
+        <v>329782.93290000036</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="276"/>
@@ -34091,14 +34144,14 @@
         <v>14</v>
       </c>
       <c r="B10" s="260">
-        <v>25310</v>
+        <v>26580</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="256">
-        <v>2613705</v>
+        <v>2568025</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="248"/>
@@ -34159,7 +34212,7 @@
       </c>
       <c r="B12" s="307">
         <f>B6+B7-B10-B11</f>
-        <v>74001.42540000008</v>
+        <v>80164.432400000107</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="40" t="s">
@@ -34309,7 +34362,7 @@
       </c>
       <c r="B17" s="261">
         <f>B5+B6-B10+B14+B15+B16</f>
-        <v>9074001.4254000001</v>
+        <v>9080164.4323999994</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41" t="s">
@@ -34317,7 +34370,7 @@
       </c>
       <c r="E17" s="259">
         <f>E5+E6+E7+E10+E11+E12+E15</f>
-        <v>9074001.4254000001</v>
+        <v>9080164.4323999994</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="118">
@@ -34373,13 +34426,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="350" t="s">
+      <c r="A19" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="351"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="352"/>
+      <c r="B19" s="357"/>
+      <c r="C19" s="357"/>
+      <c r="D19" s="357"/>
+      <c r="E19" s="358"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
@@ -34413,7 +34466,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="286">
-        <v>543260</v>
+        <v>458730</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
@@ -34475,14 +34528,14 @@
         <v>166</v>
       </c>
       <c r="B22" s="128">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="289" t="s">
         <v>128</v>
       </c>
       <c r="E22" s="290">
-        <v>253000</v>
+        <v>245000</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -34548,7 +34601,7 @@
         <v>147</v>
       </c>
       <c r="E24" s="286">
-        <v>178770</v>
+        <v>176020</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="7"/>
@@ -34718,7 +34771,7 @@
         <v>146</v>
       </c>
       <c r="E29" s="300">
-        <v>46000</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="7"/>
@@ -34773,11 +34826,14 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="32"/>
+    <row r="31" spans="1:25" ht="21" thickBot="1">
+      <c r="A31" s="347" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="348"/>
+      <c r="C31" s="348"/>
+      <c r="D31" s="348"/>
+      <c r="E31" s="349"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -38546,7 +38602,8 @@
   <sortState ref="A20:B28">
     <sortCondition ref="A19"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A19:E19"/>
